--- a/similarities/split_global/harmonic_similarity_timestamps_350.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_350.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
+          <t>('0:00:38.588000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.300000', '0:00:21.940000')]</t>
+          <t>('0:00:31.310000', '0:00:34.950000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=31.31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_24</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7']]</t>
+          <t>['A:7', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:7']]</t>
+          <t>['Bb:7', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:18.690000', '0:01:23.150000')]</t>
+          <t>('0:00:43.926916', '0:00:50.765192')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:38.560000', '0:00:45.420000')]</t>
+          <t>('0:00:36.950000', '0:00:43.560000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=78.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=38.56']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=36.95</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:59.340000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:27.360000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:45.720000', '0:00:54.380000')]</t>
+          <t>('0:00:07.700000', '0:00:19.980000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=7.7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B']]</t>
+          <t>['A:min', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A#:min/C#', 'C#/F', 'A#:min/F']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+          <t>('0:01:12.754489', '0:01:20.463514')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:07.100000', '0:01:10.760000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=72.754489</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=67.1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['F:maj/C', 'A#:min/C#', 'G#:maj/C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G', 'C:min', 'Bb/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:31.040000', '0:00:34.180000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:01:48.913000', '0:01:54.379000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=31.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=108.913</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['Eb', 'Eb:7', 'Ab:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['D', 'D:7', 'G:7', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+          <t>('0:00:07.920000', '0:00:29.740000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000'), ('0:01:30.780000', '0:01:41.320000')]</t>
+          <t>('0:00:00.230000', '0:00:08.780000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=7.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=90.78']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=0.23</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:25.870000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:53.530000', '0:01:00.920000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=53.53']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>['A', 'D', 'A/3', 'B:min7', 'D/2', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G', 'C', 'G/3', 'A:min7', 'C/5', 'G', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.465952', '0:00:06.886543')]</t>
+          <t>('0:01:53.495000', '0:02:00.256000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+          <t>('0:00:14.628775', '0:00:35.056893')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=113.495</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>schubert-winterreise_78</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:38.120000', '0:00:47.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:36.200000', '0:00:42.920000')]</t>
+          <t>('0:00:14.420000', '0:00:49.560000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=36.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7', 'D:7']]</t>
+          <t>['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'A:min7', 'D:7']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:37.990000', '0:00:45.130000')]</t>
+          <t>('0:00:07.960000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:50.680000', '0:00:57.380000')]</t>
+          <t>('0:00:22.300000', '0:00:48.740000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=37.99']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.389127', '0:00:22.035759')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
